--- a/data/trans_orig/IMC_R-Nacimiento-trans_orig.xlsx
+++ b/data/trans_orig/IMC_R-Nacimiento-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Índice de masa corporal (recodificación OMS) en 2007 (tasa de respuesta: 98,86%)</t>
+          <t>Población según las categorías de la OMS del Índice de Masa Corporal (IMC) en 2007 (tasa de respuesta: 98,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1869,7 +1869,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Índice de masa corporal (recodificación OMS) en 2012 (tasa de respuesta: 96,9%)</t>
+          <t>Población según las categorías de la OMS del Índice de Masa Corporal (IMC) en 2012 (tasa de respuesta: 96,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3184,7 +3184,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Índice de masa corporal (recodificación OMS) en 2016 (tasa de respuesta: 95,54%)</t>
+          <t>Población según las categorías de la OMS del Índice de Masa Corporal (IMC) en 2016 (tasa de respuesta: 95,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4499,7 +4499,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Índice de masa corporal (recodificación OMS) en 2023 (tasa de respuesta: 96,36%)</t>
+          <t>Población según las categorías de la OMS del Índice de Masa Corporal (IMC) en 2023 (tasa de respuesta: 96,36%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
